--- a/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_02-03-2023.xlsx
+++ b/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_02-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6B888-47A2-4499-A3C1-BD1EB6D77D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C04B9-411B-4D12-8B11-84B2BDB0B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="4200" windowWidth="7500" windowHeight="6000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="528">
   <si>
     <t>HC40T</t>
   </si>
@@ -1826,40 +1826,10 @@
     <t>Success</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">40FT FLAT BED TRAILER </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">≤ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24 TON</t>
-    </r>
-  </si>
-  <si>
-    <t>HH-Q00010-23-RIC</t>
-  </si>
-  <si>
-    <t>M:\2. Sales Department\Unipath\Quotations\HH-Q00020-23-AA.xlsx</t>
-  </si>
-  <si>
-    <t>M:\2. Sales Department\Unipath\Invoices\Daily\Invoices_02-03-2023\IN 22120679 - Daily Scenario.pdf</t>
-  </si>
-  <si>
-    <t>IN 22120679</t>
+    <t>M:\2. Sales Department\Unipath\Quotations\HH-Q00105R1-22-RIC.xlsx</t>
+  </si>
+  <si>
+    <t>HH-Q00105R1-22-RIC</t>
   </si>
 </sst>
 </file>
@@ -2975,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
-  <dimension ref="A1:AK96"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G2" sqref="F2:G2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3075,7 @@
         <v>527</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>517</v>
@@ -3114,12 +3084,8 @@
         <v>518</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>530</v>
-      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
         <v>30</v>
       </c>
@@ -3160,9 +3126,6 @@
         <v>519</v>
       </c>
       <c r="W2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y2" t="s">
         <v>525</v>
       </c>
       <c r="Z2" s="26"/>
@@ -3223,11 +3186,6 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D96" t="s">
-        <v>526</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3758,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBC129-ECCE-4153-8F48-605086C90137}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4419,11 +4377,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D96" t="s">
-        <v>526</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4434,9 +4387,8 @@
   <dimension ref="A1:W130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C20" sqref="C20"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6723,26 +6675,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F784BE4360C98D4FB257A0FD34EA02FE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9990601204655ef79abb207665927850">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73b1f32-535a-40bf-95de-5e4e52a9bea4" xmlns:ns3="0f2ac075-41ad-49ac-8f8f-deebc546c741" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531a7b24c840301f317ddb076c833d55" ns2:_="" ns3:_="">
     <xsd:import namespace="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
@@ -6979,10 +6911,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
+    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7001,20 +6964,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
-    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_02-03-2023.xlsx
+++ b/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_02-03-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C04B9-411B-4D12-8B11-84B2BDB0B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C01696-F991-4342-93F2-D085C04E7995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="526">
   <si>
     <t>HC40T</t>
   </si>
@@ -1797,12 +1797,6 @@
   </si>
   <si>
     <t>WC3151P</t>
-  </si>
-  <si>
-    <t>M-JB402-2840</t>
-  </si>
-  <si>
-    <t>M:\2. Sales Department\Unipath\Purchase Orders\M-JB402-2840.pdf</t>
   </si>
   <si>
     <t>M:\2. Sales Department\Unipath\Delivery Orders\Daily\DOPDFs_14-02-2023\HupHin-DeliveryOrder-DO230109006-2023-02-14.pdf</t>
@@ -2948,7 +2942,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,17 +3066,13 @@
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>518</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -3090,7 +3080,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J2" t="s">
         <v>514</v>
@@ -3108,25 +3098,25 @@
         <v>515</v>
       </c>
       <c r="P2" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>522</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>524</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="W2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Z2" s="26"/>
     </row>
@@ -6675,6 +6665,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F784BE4360C98D4FB257A0FD34EA02FE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9990601204655ef79abb207665927850">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73b1f32-535a-40bf-95de-5e4e52a9bea4" xmlns:ns3="0f2ac075-41ad-49ac-8f8f-deebc546c741" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531a7b24c840301f317ddb076c833d55" ns2:_="" ns3:_="">
     <xsd:import namespace="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
@@ -6911,41 +6921,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
-    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6964,9 +6943,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
+    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>